--- a/data/Eksklusionslister/PensionDanmark_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/PensionDanmark_eksklusionsliste_isin.xlsx
@@ -604,17 +604,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[nan, 'Tesla Inc', 'TESLA INC', 'Tesla Inc.', 'Tesla Motors', 'USA']</t>
+          <t>[nan, 'Tesla Inc', 'TESLA INC', 'Tesla Motors', 'Tesla Inc.', 'USA']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['TESLA INC', 'Tesla Inc.', 'Tesla Inc', 'Tesla Motors', 'Tesla, Inc.']</t>
+          <t>['TESLA INC', 'Tesla Inc', 'Tesla Inc.', 'Tesla Motors', 'Tesla, Inc.']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Assens', 'Egedal', 'Favrskov', 'Mariagerfjord', 'Norddjurs', 'Region Sjælland', 'Ballerup', 'Brøndby', 'Brønderslev', 'Faxe', 'Fredensborg', 'Frederiksberg', 'Furesø', 'Faaborg-Midtfyn', 'Hedensted', 'Herning', 'Holstebro', 'Hvidovre', 'Ikast-Brande', 'Kerteminde', 'Kolding', 'Køge', 'Lolland', 'Morsø', 'Region Midtjylland', 'Region Nordjylland', 'Rudersdal', 'Silkeborg', 'Skive', 'Sorø', 'Struer', 'Varde', 'Vesthimmerland', 'Billund', 'Bornholm', 'Gribskov', 'Guldborgsund', 'Horsens', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Svendborg', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Fredericia', 'Greve', 'Hillerød', 'Hørsholm', 'Lemvig', 'Næstved', 'Randers', 'Fanø', 'Odense', 'Aalborg', 'Aarhus']</t>
+          <t>['Assens', 'Mariagerfjord', 'Ballerup', 'Brøndby', 'Brønderslev', 'Egedal', 'Faxe', 'Fredensborg', 'Frederiksberg', 'Furesø', 'Faaborg-Midtfyn', 'Hedensted', 'Herning', 'Holstebro', 'Hvidovre', 'Ikast-Brande', 'Kerteminde', 'Kolding', 'Køge', 'Lolland', 'Morsø', 'Region Midtjylland', 'Region Nordjylland', 'Region Sjælland', 'Rudersdal', 'Silkeborg', 'Skive', 'Sorø', 'Struer', 'Varde', 'Vesthimmerland', 'Fredericia', 'Greve', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Lemvig', 'Næstved', 'Randers', 'Aabenraa', 'Odense', 'Aalborg', 'Favrskov', 'Billund', 'Bornholm', 'Gribskov', 'Guldborgsund', 'Horsens', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Svendborg', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Fanø', 'Norddjurs', 'Aarhus']</t>
         </is>
       </c>
     </row>
